--- a/outputs/ML_Results/carown_LR_new/Magdeburg.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Magdeburg.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ5" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ16" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ16" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ7" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ27" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ8" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ19" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-12.86192763429098</v>
+        <v>-13.64504641177674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997125207337752</v>
+        <v>0.9969532194100611</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.46714709801619</v>
+        <v>17.53731268072773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9960958910492776</v>
+        <v>0.996084125656223</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.77401363310373</v>
+        <v>18.60292562384965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9958037939586719</v>
+        <v>0.9958461890391418</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.96465390488688</v>
+        <v>15.25943092514708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9966552236120017</v>
+        <v>0.9965927463721103</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.65119280877741</v>
+        <v>15.76849890850882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.996501775042382</v>
+        <v>0.9964790781318393</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.45793121661405</v>
+        <v>17.24204712436096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9960979509368392</v>
+        <v>0.9961500544846186</v>
       </c>
     </row>
     <row r="8">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9325506997429368</v>
+        <v>-0.7753359781670076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001825634085533136</v>
+        <v>0.0003011829967220505</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007561325053282258</v>
+        <v>0.0006992592451581855</v>
       </c>
       <c r="C9" t="n">
-        <v>9.037401316015739e-09</v>
+        <v>3.677464594472012e-08</v>
       </c>
     </row>
     <row r="10">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01665313059386209</v>
+        <v>-0.01504733857843828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05787380511269134</v>
+        <v>0.07676537910174575</v>
       </c>
     </row>
     <row r="11">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1993821113707128</v>
+        <v>-0.1024494783534146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3150806912915084</v>
+        <v>0.5971440887515046</v>
       </c>
     </row>
     <row r="12">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8783526216581369</v>
+        <v>0.9844603388547382</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00929706375163173</v>
+        <v>0.003005584346171527</v>
       </c>
     </row>
     <row r="13">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5476265541739931</v>
+        <v>0.6132506198003751</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2004073903970279</v>
+        <v>0.140451191157343</v>
       </c>
     </row>
     <row r="14">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002516753524818499</v>
+        <v>-0.0002656579609752482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.318817109922332</v>
+        <v>0.2526275018897995</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.532184577561397e-08</v>
+        <v>-4.619064721115392e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8679898247138271</v>
+        <v>0.8067923184625609</v>
       </c>
     </row>
     <row r="16">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1398906161034632</v>
+        <v>-0.150066980646662</v>
       </c>
       <c r="C16" t="n">
-        <v>0.53478296956063</v>
+        <v>0.4810552444541691</v>
       </c>
     </row>
     <row r="17">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1460459069753826</v>
+        <v>-0.3656536259105582</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7839180176558731</v>
+        <v>0.4345501758874211</v>
       </c>
     </row>
     <row r="18">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.64511523444665</v>
+        <v>-5.738155181608431</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7755106981830779</v>
+        <v>0.5062098553875066</v>
       </c>
     </row>
     <row r="19">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003606085438921111</v>
+        <v>0.003704784700253699</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9557897476063251</v>
+        <v>0.9489881354255881</v>
       </c>
     </row>
     <row r="20">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0006290636747074566</v>
+        <v>0.01012727759862994</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9601527463551939</v>
+        <v>0.385376162312715</v>
       </c>
     </row>
     <row r="21">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.728816371085255</v>
+        <v>2.131281000135007</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2581370639331014</v>
+        <v>0.3484503641738604</v>
       </c>
     </row>
     <row r="22">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.8734132867672599</v>
+        <v>-0.1902609022707745</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7350867391294106</v>
+        <v>0.932923990756879</v>
       </c>
     </row>
     <row r="23">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0003201560700825889</v>
+        <v>-0.0005449891306462386</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6738924440868503</v>
+        <v>0.4148491130612382</v>
       </c>
     </row>
   </sheetData>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.31640231177373</v>
+        <v>-16.7685688734401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9973383914282388</v>
+        <v>0.9970873256439191</v>
       </c>
     </row>
     <row r="3">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.76013494389791</v>
+        <v>17.56256614761944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996913732599932</v>
+        <v>0.9969494091201345</v>
       </c>
     </row>
     <row r="4">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.84720690049942</v>
+        <v>18.42566558149274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967248277283917</v>
+        <v>0.9967994908801618</v>
       </c>
     </row>
     <row r="5">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.60807742570444</v>
+        <v>15.46312439027462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972877048514884</v>
+        <v>0.997314077474452</v>
       </c>
     </row>
     <row r="6">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.07261548530252</v>
+        <v>16.0278374532563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972069800302164</v>
+        <v>0.9972159880159016</v>
       </c>
     </row>
     <row r="7">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.86288827932055</v>
+        <v>17.70287576245358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968958767496319</v>
+        <v>0.9969250376951495</v>
       </c>
     </row>
     <row r="8">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7837921628043655</v>
+        <v>-0.6908112065930037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002357015031914235</v>
+        <v>0.003421074793078283</v>
       </c>
     </row>
     <row r="9">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007262408104387502</v>
+        <v>0.0008390533667437858</v>
       </c>
       <c r="C9" t="n">
-        <v>7.480302628726598e-09</v>
+        <v>3.758115476797952e-10</v>
       </c>
     </row>
     <row r="10">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01525436987970867</v>
+        <v>-0.01594761447487784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07370214683877338</v>
+        <v>0.05950826576653112</v>
       </c>
     </row>
     <row r="11">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007133434019605592</v>
+        <v>-0.2763887702803066</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9703365302005547</v>
+        <v>0.1570408237458784</v>
       </c>
     </row>
     <row r="12">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8893746634346572</v>
+        <v>0.8212323307439163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00619699666038534</v>
+        <v>0.0128729037436688</v>
       </c>
     </row>
     <row r="13">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6105416385054916</v>
+        <v>0.6389098203034684</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1418137881076815</v>
+        <v>0.118714869849714</v>
       </c>
     </row>
     <row r="14">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002347883636307125</v>
+        <v>-0.0003202516399477072</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3267341831685349</v>
+        <v>0.1858291288724936</v>
       </c>
     </row>
     <row r="15">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.784848016075648e-08</v>
+        <v>1.466225213883574e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.731700101605637</v>
+        <v>0.4732023702640052</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2686200366150869</v>
+        <v>-0.2341911918456147</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2060669306432101</v>
+        <v>0.2834274740847079</v>
       </c>
     </row>
     <row r="17">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04183436730537896</v>
+        <v>0.2480588296589355</v>
       </c>
       <c r="C17" t="n">
-        <v>0.932583086071831</v>
+        <v>0.6296356674111627</v>
       </c>
     </row>
     <row r="18">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7443770587038315</v>
+        <v>4.103292061108729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9322592077385181</v>
+        <v>0.6429046246715595</v>
       </c>
     </row>
     <row r="19">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02762406155065915</v>
+        <v>0.04829493372851917</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6483333694687545</v>
+        <v>0.4419920570182263</v>
       </c>
     </row>
     <row r="20">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002933383547279909</v>
+        <v>-0.006400329740719237</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8065351126759022</v>
+        <v>0.6085227015208065</v>
       </c>
     </row>
     <row r="21">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.690394779158162</v>
+        <v>2.367243684439749</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233574552866562</v>
+        <v>0.2971431719583548</v>
       </c>
     </row>
     <row r="22">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.423052462282845</v>
+        <v>-2.46582021666432</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5509631500196666</v>
+        <v>0.326834670319194</v>
       </c>
     </row>
     <row r="23">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0002722138928861336</v>
+        <v>0.0001670657224994201</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7016966838580273</v>
+        <v>0.8214198377057049</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.53028656550706</v>
+        <v>-13.54789647940382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9976484561865534</v>
+        <v>0.9976444650716703</v>
       </c>
     </row>
     <row r="3">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.94311161993119</v>
+        <v>17.8977088238034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968815162051508</v>
+        <v>0.996888177728226</v>
       </c>
     </row>
     <row r="4">
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.27451875023435</v>
+        <v>19.36691083037212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966501211358633</v>
+        <v>0.9966327333638413</v>
       </c>
     </row>
     <row r="5">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.67697477528936</v>
+        <v>15.40381725971024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972753654860671</v>
+        <v>0.9973217816006383</v>
       </c>
     </row>
     <row r="6">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.12380934807888</v>
+        <v>15.97147365277371</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971977066273858</v>
+        <v>0.9972230851709954</v>
       </c>
     </row>
     <row r="7">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.9518067519974</v>
+        <v>18.03282233421611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.996880005029895</v>
+        <v>0.9968646860786405</v>
       </c>
     </row>
     <row r="8">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8103659933775751</v>
+        <v>-1.009027433041484</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001090042198005807</v>
+        <v>4.87036701976418e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006570005146288989</v>
+        <v>0.0007282769452443714</v>
       </c>
       <c r="C9" t="n">
-        <v>1.347733539788225e-07</v>
+        <v>1.370595667692754e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01010317177526306</v>
+        <v>-0.0212466763925776</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2304550997051349</v>
+        <v>0.01415852946263314</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02752246128713267</v>
+        <v>-0.1366731981058723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8868084679564944</v>
+        <v>0.4858317007720234</v>
       </c>
     </row>
     <row r="12">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6856566705560236</v>
+        <v>0.9959667492899429</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03680577316720042</v>
+        <v>0.002550901951326969</v>
       </c>
     </row>
     <row r="13">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3120969884474677</v>
+        <v>0.7450089952403836</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4514531891910954</v>
+        <v>0.07373762112193086</v>
       </c>
     </row>
     <row r="14">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.000193683799945772</v>
+        <v>-0.0001616326080310655</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3896389023587326</v>
+        <v>0.4892539981404674</v>
       </c>
     </row>
     <row r="15">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.254509228088164e-08</v>
+        <v>-6.757700105880862e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8175101916908519</v>
+        <v>0.9713707192025356</v>
       </c>
     </row>
     <row r="16">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2580617447889153</v>
+        <v>-0.2453807107170603</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212058967975852</v>
+        <v>0.2560803596514774</v>
       </c>
     </row>
     <row r="17">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2748016057854439</v>
+        <v>-0.1048315531765319</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5485504725012729</v>
+        <v>0.8218465131206822</v>
       </c>
     </row>
     <row r="18">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.399978092771902</v>
+        <v>2.412376018971042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6847918178552728</v>
+        <v>0.7812408818044131</v>
       </c>
     </row>
     <row r="19">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001536794085457008</v>
+        <v>-0.0004857345787668095</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9782607439948622</v>
+        <v>0.9933322450978915</v>
       </c>
     </row>
     <row r="20">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004181712014515888</v>
+        <v>-0.001702808495777236</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7124371868053532</v>
+        <v>0.8844883973602465</v>
       </c>
     </row>
     <row r="21">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.159921765374762</v>
+        <v>3.582987471480612</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3293656459417181</v>
+        <v>0.1288826470527998</v>
       </c>
     </row>
     <row r="22">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.9320431433539429</v>
+        <v>0.8739465577759593</v>
       </c>
       <c r="C22" t="n">
-        <v>0.679390301403598</v>
+        <v>0.7052233002307533</v>
       </c>
     </row>
     <row r="23">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0004557620847430384</v>
+        <v>-0.0006140143353247934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4882172872475734</v>
+        <v>0.3609997139282863</v>
       </c>
     </row>
   </sheetData>
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.37618515615176</v>
+        <v>-15.66619992457259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9976744841834481</v>
+        <v>0.9972778341337495</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.7327112792673</v>
+        <v>17.78998357287058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969170830010327</v>
+        <v>0.9969088053129805</v>
       </c>
     </row>
     <row r="4">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.1214270208068</v>
+        <v>18.95336048613217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966756494755464</v>
+        <v>0.9967066576114033</v>
       </c>
     </row>
     <row r="5">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.44801478836707</v>
+        <v>15.48137877017976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973142868471279</v>
+        <v>0.9973099477792151</v>
       </c>
     </row>
     <row r="6">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.90967430616067</v>
+        <v>16.05280576122525</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972340253913287</v>
+        <v>0.9972106567326482</v>
       </c>
     </row>
     <row r="7">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.66304189259435</v>
+        <v>17.48968985856779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9969291953162621</v>
+        <v>0.9969609842333415</v>
       </c>
     </row>
     <row r="8">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8118564262077798</v>
+        <v>-0.795110414097861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001989324406952387</v>
+        <v>0.000241137628482972</v>
       </c>
     </row>
     <row r="9">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006373296551060829</v>
+        <v>0.0007344972070932753</v>
       </c>
       <c r="C9" t="n">
-        <v>1.697391101344472e-07</v>
+        <v>6.494276513637778e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01340683212667684</v>
+        <v>-0.0151043418137334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1124345917424067</v>
+        <v>0.07448887686270625</v>
       </c>
     </row>
     <row r="11">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1093415612348466</v>
+        <v>-0.09718088473896519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5691965910555381</v>
+        <v>0.6166491791026145</v>
       </c>
     </row>
     <row r="12">
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8511574626222717</v>
+        <v>0.748236244531207</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01059043764283758</v>
+        <v>0.0239276732121428</v>
       </c>
     </row>
     <row r="13">
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.624762564996732</v>
+        <v>0.5337569237695641</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1399945168510518</v>
+        <v>0.201406758752032</v>
       </c>
     </row>
     <row r="14">
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0003270140501880517</v>
+        <v>-0.0002977815909434672</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1553420630703183</v>
+        <v>0.1952567212364895</v>
       </c>
     </row>
     <row r="15">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.581773832822565e-08</v>
+        <v>1.000779854305563e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8449347401473248</v>
+        <v>0.5991314056916037</v>
       </c>
     </row>
     <row r="16">
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2841483884815537</v>
+        <v>-0.3035963227602963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1859492597322229</v>
+        <v>0.151585449472894</v>
       </c>
     </row>
     <row r="17">
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2490905888329292</v>
+        <v>0.0840106663277284</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5851772254808274</v>
+        <v>0.8596408965827746</v>
       </c>
     </row>
     <row r="18">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.862055928212523</v>
+        <v>2.142741303183952</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8244388837988665</v>
+        <v>0.7985844634773289</v>
       </c>
     </row>
     <row r="19">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0006329099571627805</v>
+        <v>0.0359026251015081</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9910997901890475</v>
+        <v>0.5393596926029185</v>
       </c>
     </row>
     <row r="20">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002561577645675705</v>
+        <v>-0.002937530776884772</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8245965550435107</v>
+        <v>0.8025065005580134</v>
       </c>
     </row>
     <row r="21">
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.219677913397335</v>
+        <v>3.04103585823931</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0748360911428859</v>
+        <v>0.170258564983074</v>
       </c>
     </row>
     <row r="22">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.5659768764080707</v>
+        <v>-2.009339533005337</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8024005760472983</v>
+        <v>0.3937977464677599</v>
       </c>
     </row>
     <row r="23">
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0004042469533102078</v>
+        <v>-0.0001265253999125482</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5397423718173788</v>
+        <v>0.8531792786695821</v>
       </c>
     </row>
   </sheetData>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.55997521420122</v>
+        <v>-15.32270629951454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9974689301647499</v>
+        <v>0.9973373397592582</v>
       </c>
     </row>
     <row r="3">
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.88304239479861</v>
+        <v>17.89267695266153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968912580617525</v>
+        <v>0.9968907514469236</v>
       </c>
     </row>
     <row r="4">
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.79522665074403</v>
+        <v>18.8952285833319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967326871936604</v>
+        <v>0.9967165368988198</v>
       </c>
     </row>
     <row r="5">
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.54444221380112</v>
+        <v>15.67184917412926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972977926127176</v>
+        <v>0.9972766678140461</v>
       </c>
     </row>
     <row r="6">
@@ -1805,10 +1805,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.96201608696026</v>
+        <v>16.057610503417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972252028918303</v>
+        <v>0.9972096334767019</v>
       </c>
     </row>
     <row r="7">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.86986053216744</v>
+        <v>17.79454642990093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968935495730145</v>
+        <v>0.9969078037284967</v>
       </c>
     </row>
     <row r="8">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7547133871290933</v>
+        <v>-0.7463384916139769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004719359421585476</v>
+        <v>0.0009225610050098036</v>
       </c>
     </row>
     <row r="9">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007644708946839897</v>
+        <v>0.0007857970466113032</v>
       </c>
       <c r="C9" t="n">
-        <v>3.307255410740892e-09</v>
+        <v>9.814580729928581e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01654439125834415</v>
+        <v>-0.01458518969534222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05157878617705905</v>
+        <v>0.08596425024133672</v>
       </c>
     </row>
     <row r="11">
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2249664070953707</v>
+        <v>-0.2400125705334654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2497588099314612</v>
+        <v>0.216944499939322</v>
       </c>
     </row>
     <row r="12">
@@ -1883,10 +1883,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8503506621163124</v>
+        <v>0.652515870030044</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009573442062826268</v>
+        <v>0.05067678388337214</v>
       </c>
     </row>
     <row r="13">
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6063234947852377</v>
+        <v>0.3810971922027784</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1431709572931409</v>
+        <v>0.3685952187600676</v>
       </c>
     </row>
     <row r="14">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002305816514492109</v>
+        <v>-0.0001527636827398284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3272484910229788</v>
+        <v>0.5104395297006545</v>
       </c>
     </row>
     <row r="15">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.208959819462966e-08</v>
+        <v>3.0299659741225e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7886362639513758</v>
+        <v>0.8730713261279007</v>
       </c>
     </row>
     <row r="16">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2941409454474432</v>
+        <v>-0.2597142694625421</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1785974806889312</v>
+        <v>0.2145061153950422</v>
       </c>
     </row>
     <row r="17">
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04524374999944383</v>
+        <v>-0.07615784801756552</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9250944503872581</v>
+        <v>0.8712279562956609</v>
       </c>
     </row>
     <row r="18">
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.07128613849544</v>
+        <v>1.463455638259917</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6440226065152513</v>
+        <v>0.8629998257852621</v>
       </c>
     </row>
     <row r="19">
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01345985832398656</v>
+        <v>0.01837893304350612</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8219241064773424</v>
+        <v>0.7524061319667623</v>
       </c>
     </row>
     <row r="20">
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005369750358177689</v>
+        <v>0.002717458398111686</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6493669199048959</v>
+        <v>0.8145676711654595</v>
       </c>
     </row>
     <row r="21">
@@ -2000,10 +2000,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.856073375509347</v>
+        <v>2.136540867536956</v>
       </c>
       <c r="C21" t="n">
-        <v>0.217134102120122</v>
+        <v>0.3439764275030531</v>
       </c>
     </row>
     <row r="22">
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.275316236000684</v>
+        <v>-1.149880621267954</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5902519733771534</v>
+        <v>0.6178223165454535</v>
       </c>
     </row>
     <row r="23">
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0002588568351406204</v>
+        <v>-0.0003635335476545985</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7088080031695576</v>
+        <v>0.590333872028038</v>
       </c>
     </row>
   </sheetData>
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.72339448383842</v>
+        <v>-13.29424230911268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9976132760395636</v>
+        <v>0.9976875137068431</v>
       </c>
     </row>
     <row r="3">
@@ -2088,10 +2088,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.69745078678513</v>
+        <v>17.87978689922986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996922124380943</v>
+        <v>0.9968898770556992</v>
       </c>
     </row>
     <row r="4">
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.05882149076634</v>
+        <v>18.64323173713353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966853611310081</v>
+        <v>0.9967570793823272</v>
       </c>
     </row>
     <row r="5">
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.48982343602412</v>
+        <v>15.7202292348638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973060652587024</v>
+        <v>0.997265522571923</v>
       </c>
     </row>
     <row r="6">
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.88455253227094</v>
+        <v>16.04623481644955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972374156552749</v>
+        <v>0.997208815300176</v>
       </c>
     </row>
     <row r="7">
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.7435612769866</v>
+        <v>17.67870351828812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9969141050712301</v>
+        <v>0.9969248546108924</v>
       </c>
     </row>
     <row r="8">
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8135695820059352</v>
+        <v>-0.6971430547043895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003450196423043509</v>
+        <v>0.00105919848034268</v>
       </c>
     </row>
     <row r="9">
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008007963490838397</v>
+        <v>0.0006832178435527158</v>
       </c>
       <c r="C9" t="n">
-        <v>1.121342508805409e-09</v>
+        <v>7.938971443945318e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01228934065676987</v>
+        <v>-0.01177092701348838</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1439138998218459</v>
+        <v>0.1679475799340484</v>
       </c>
     </row>
     <row r="11">
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1207775593465596</v>
+        <v>-0.05696221424343623</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5399345265694753</v>
+        <v>0.7696119202571721</v>
       </c>
     </row>
     <row r="12">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6284175863964753</v>
+        <v>0.8774867515848168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0575228410982816</v>
+        <v>0.007941219904669568</v>
       </c>
     </row>
     <row r="13">
@@ -2218,10 +2218,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.35542772704034</v>
+        <v>0.4316048090130535</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3878681402622393</v>
+        <v>0.3020212129326922</v>
       </c>
     </row>
     <row r="14">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001682975785736557</v>
+        <v>-0.0001717703753532388</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4679881546214318</v>
+        <v>0.4552827124243825</v>
       </c>
     </row>
     <row r="15">
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.406068021270934e-08</v>
+        <v>-2.803821943741724e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9403454868607164</v>
+        <v>0.8810789697034871</v>
       </c>
     </row>
     <row r="16">
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3690437847723093</v>
+        <v>-0.3179494157039183</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08651873924426431</v>
+        <v>0.1385191475574782</v>
       </c>
     </row>
     <row r="17">
@@ -2270,10 +2270,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2430643740829496</v>
+        <v>-0.1825707316257092</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6017459518848765</v>
+        <v>0.6953316835513805</v>
       </c>
     </row>
     <row r="18">
@@ -2283,10 +2283,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.237738314989647</v>
+        <v>-0.1676119691529799</v>
       </c>
       <c r="C18" t="n">
-        <v>0.796321414872087</v>
+        <v>0.9843145224716918</v>
       </c>
     </row>
     <row r="19">
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003323439182083073</v>
+        <v>-0.001886238278630855</v>
       </c>
       <c r="C19" t="n">
-        <v>0.953930692963874</v>
+        <v>0.9738400351586916</v>
       </c>
     </row>
     <row r="20">
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005098608822121082</v>
+        <v>-0.00331442717457326</v>
       </c>
       <c r="C20" t="n">
-        <v>0.662274949399978</v>
+        <v>0.7768065019590336</v>
       </c>
     </row>
     <row r="21">
@@ -2322,10 +2322,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.611525763503728</v>
+        <v>2.956712825315793</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2486253421123026</v>
+        <v>0.1994664715177314</v>
       </c>
     </row>
     <row r="22">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.7402816649998287</v>
+        <v>0.2414486576580051</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7440248878161762</v>
+        <v>0.9173261158256502</v>
       </c>
     </row>
     <row r="23">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0006101525065786513</v>
+        <v>-0.0006470598759006389</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3661223615117409</v>
+        <v>0.3368777400114368</v>
       </c>
     </row>
   </sheetData>
@@ -2397,10 +2397,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.86541680646254</v>
+        <v>-11.1804402514079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9975893804288702</v>
+        <v>0.9980546585155038</v>
       </c>
     </row>
     <row r="3">
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.02133961074975</v>
+        <v>17.89697547925538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968668404795542</v>
+        <v>0.9968860182580355</v>
       </c>
     </row>
     <row r="4">
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.71500497524418</v>
+        <v>19.13289400238139</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967462416779781</v>
+        <v>0.9966709760196888</v>
       </c>
     </row>
     <row r="5">
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.89624530088802</v>
+        <v>15.61715696348662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972363041960771</v>
+        <v>0.9972826933179106</v>
       </c>
     </row>
     <row r="6">
@@ -2449,10 +2449,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.45389780318955</v>
+        <v>16.07643895084353</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971393520314394</v>
+        <v>0.9972027808865961</v>
       </c>
     </row>
     <row r="7">
@@ -2462,10 +2462,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.94158981197521</v>
+        <v>18.41807362796591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968807055903399</v>
+        <v>0.9967953503658833</v>
       </c>
     </row>
     <row r="8">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6782286541819563</v>
+        <v>-0.7772005239962587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003716954275828785</v>
+        <v>0.000222641501085625</v>
       </c>
     </row>
     <row r="9">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007749716697791536</v>
+        <v>0.0006698442321645163</v>
       </c>
       <c r="C9" t="n">
-        <v>3.262764670741663e-09</v>
+        <v>1.092359515875901e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01846696788059944</v>
+        <v>-0.01601126258916679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02999550623512136</v>
+        <v>0.05950394051498079</v>
       </c>
     </row>
     <row r="11">
@@ -2514,10 +2514,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2015780072118841</v>
+        <v>-0.03417513527197928</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2964825845659911</v>
+        <v>0.8606561556632195</v>
       </c>
     </row>
     <row r="12">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6875586147159614</v>
+        <v>0.9326826930695854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03921426949005271</v>
+        <v>0.005238564416993661</v>
       </c>
     </row>
     <row r="13">
@@ -2540,10 +2540,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5174968274242027</v>
+        <v>0.7653230190048058</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2179364799520777</v>
+        <v>0.06891802632786199</v>
       </c>
     </row>
     <row r="14">
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001185108071533325</v>
+        <v>-8.432539104700371e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6151161033672347</v>
+        <v>0.7244348444425414</v>
       </c>
     </row>
     <row r="15">
@@ -2566,10 +2566,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.678635620588285e-08</v>
+        <v>-1.49483231822811e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8089098157794535</v>
+        <v>0.4449037144322786</v>
       </c>
     </row>
     <row r="16">
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2500772092325454</v>
+        <v>-0.2396735634682422</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2361592363102887</v>
+        <v>0.2724095961811753</v>
       </c>
     </row>
     <row r="17">
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2954068457726957</v>
+        <v>-0.4127508486308795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5377100599061386</v>
+        <v>0.3946237727628171</v>
       </c>
     </row>
     <row r="18">
@@ -2605,10 +2605,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.104545459825629</v>
+        <v>-5.777663288038664</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8102896132735221</v>
+        <v>0.5331298636140114</v>
       </c>
     </row>
     <row r="19">
@@ -2618,10 +2618,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002548730417563698</v>
+        <v>-0.0396269610524661</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9656067936370073</v>
+        <v>0.5032633299770599</v>
       </c>
     </row>
     <row r="20">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005464360822703278</v>
+        <v>0.003057651771134093</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6450836099415473</v>
+        <v>0.7980233187009466</v>
       </c>
     </row>
     <row r="21">
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.597254007321106</v>
+        <v>2.357023801676115</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2523099204661798</v>
+        <v>0.314953535418771</v>
       </c>
     </row>
     <row r="22">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03279004900000395</v>
+        <v>-0.4815933755352046</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9886178144739499</v>
+        <v>0.8330872280683574</v>
       </c>
     </row>
     <row r="23">
@@ -2670,10 +2670,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0007015929139547485</v>
+        <v>-0.0007791915500967872</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3073463967197042</v>
+        <v>0.2585766805460581</v>
       </c>
     </row>
   </sheetData>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.5338539024142</v>
+        <v>-13.18915968852993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9973013059171222</v>
+        <v>0.9977068031592271</v>
       </c>
     </row>
     <row r="3">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.97615938389286</v>
+        <v>17.93744952430875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968770054807343</v>
+        <v>0.9968812214910031</v>
       </c>
     </row>
     <row r="4">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.69882227963901</v>
+        <v>19.3450793244653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967514581092809</v>
+        <v>0.9966364787810936</v>
       </c>
     </row>
     <row r="5">
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.69038442904844</v>
+        <v>15.56813349496877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972741110440992</v>
+        <v>0.9972931719988095</v>
       </c>
     </row>
     <row r="6">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.16240682806736</v>
+        <v>16.05521371973426</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971921069723557</v>
+        <v>0.9972084838054078</v>
       </c>
     </row>
     <row r="7">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.85072800249509</v>
+        <v>17.88937146603787</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968987965608738</v>
+        <v>0.996889580781898</v>
       </c>
     </row>
     <row r="8">
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7223050434035102</v>
+        <v>-0.8485709235643064</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001686199191109132</v>
+        <v>7.282632975041714e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008030214464485662</v>
+        <v>0.0006786650490709129</v>
       </c>
       <c r="C9" t="n">
-        <v>2.201322255646867e-09</v>
+        <v>3.738529180298787e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02754770311155928</v>
+        <v>-0.01118780932540975</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001695516438786663</v>
+        <v>0.18912031872914</v>
       </c>
     </row>
     <row r="11">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1815859563070935</v>
+        <v>-0.1317126554852559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3617011321765321</v>
+        <v>0.4921602751034485</v>
       </c>
     </row>
     <row r="12">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9776016955488555</v>
+        <v>0.623406088883935</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004195106658066067</v>
+        <v>0.05803797243951936</v>
       </c>
     </row>
     <row r="13">
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.042597090564754</v>
+        <v>0.3313926572715244</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01520973311546849</v>
+        <v>0.4312077003824686</v>
       </c>
     </row>
     <row r="14">
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002533128445019326</v>
+        <v>-0.0001843426329500712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2970213250004412</v>
+        <v>0.4344666780068552</v>
       </c>
     </row>
     <row r="15">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.834124763274193e-08</v>
+        <v>-4.900523936981275e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6955704467013568</v>
+        <v>0.7968908885324077</v>
       </c>
     </row>
     <row r="16">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2765540735248895</v>
+        <v>-0.3766857321400616</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223912045495221</v>
+        <v>0.09017550096454187</v>
       </c>
     </row>
     <row r="17">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1663192389174344</v>
+        <v>-0.2128095159957454</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7413511333124618</v>
+        <v>0.6548253252564524</v>
       </c>
     </row>
     <row r="18">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.994558215349241</v>
+        <v>-1.182729147233897</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6530213212023359</v>
+        <v>0.8929460148817518</v>
       </c>
     </row>
     <row r="19">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03241836330627605</v>
+        <v>0.001224786741366614</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6010932891345352</v>
+        <v>0.9833904240343206</v>
       </c>
     </row>
     <row r="20">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006163984701101348</v>
+        <v>0.001632355487120809</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6187283450500523</v>
+        <v>0.889317718815742</v>
       </c>
     </row>
     <row r="21">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.544751986577904</v>
+        <v>2.880501634801353</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2748552034765696</v>
+        <v>0.2229577756774743</v>
       </c>
     </row>
     <row r="22">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.346659654369215</v>
+        <v>-1.267883223402456</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5926691471064267</v>
+        <v>0.589556960032203</v>
       </c>
     </row>
     <row r="23">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-9.857802650553157e-05</v>
+        <v>-0.0004710490773559037</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8920000245031513</v>
+        <v>0.4936146428100034</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Magdeburg.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Magdeburg.xlsx
@@ -12,9 +12,10 @@
     <sheet name="summ16" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ8" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ19" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,283 +466,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.64504641177674</v>
+        <v>0.02092047736538565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969532194100611</v>
+        <v>0.9952757192782308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.53731268072773</v>
+        <v>0.3355685274738435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996084125656223</v>
+        <v>0.01341623783187792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.60292562384965</v>
+        <v>0.0008351909124519682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9958461890391418</v>
+        <v>1.717018120170136e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.25943092514708</v>
+        <v>-0.009048160601067605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9965927463721103</v>
+        <v>0.2470051927275839</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.76849890850882</v>
+        <v>-0.05695742684360712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9964790781318393</v>
+        <v>0.755312145502732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.24204712436096</v>
+        <v>0.7860328500189753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9961500544846186</v>
+        <v>0.01200460683768989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7753359781670076</v>
+        <v>0.5482793693877288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003011829967220505</v>
+        <v>0.1623351476459418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006992592451581855</v>
+        <v>-0.0002861971979553852</v>
       </c>
       <c r="C9" t="n">
-        <v>3.677464594472012e-08</v>
+        <v>0.1958580393984309</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01504733857843828</v>
+        <v>-1.544560255406228e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07676537910174575</v>
+        <v>0.9338029260489356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1024494783534146</v>
+        <v>-0.192888439560319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5971440887515046</v>
+        <v>0.3452029118436492</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9844603388547382</v>
+        <v>-0.2677817507523799</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003005584346171527</v>
+        <v>0.5600092037467799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6132506198003751</v>
+        <v>-5.347129862529443</v>
       </c>
       <c r="C13" t="n">
-        <v>0.140451191157343</v>
+        <v>0.5173037824021676</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002656579609752482</v>
+        <v>0.01902350636392812</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2526275018897995</v>
+        <v>0.7411556349973907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.619064721115392e-08</v>
+        <v>0.007938403222498887</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8067923184625609</v>
+        <v>0.4890122710471269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.150066980646662</v>
+        <v>1.527541481879686</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4810552444541691</v>
+        <v>0.4515080148054543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3656536259105582</v>
+        <v>-0.3266044394941724</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4345501758874211</v>
+        <v>0.8810384416995551</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.738155181608431</v>
+        <v>-0.0003785391372174832</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5062098553875066</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.003704784700253699</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9489881354255881</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.01012727759862994</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.385376162312715</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.131281000135007</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3484503641738604</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.1902609022707745</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.932923990756879</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0005449891306462386</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4148491130612382</v>
+        <v>0.5825836095129766</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,283 +723,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.7685688734401</v>
+        <v>-2.316243892145694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9970873256439191</v>
+        <v>0.5385278344402057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.56256614761944</v>
+        <v>0.3773296680401746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969494091201345</v>
+        <v>0.007514552224016706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.42566558149274</v>
+        <v>0.0009315769333814833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967994908801618</v>
+        <v>1.126116978590191e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.46312439027462</v>
+        <v>-0.01015238404704361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.997314077474452</v>
+        <v>0.1980689112003143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.0278374532563</v>
+        <v>-0.2326902816792155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972159880159016</v>
+        <v>0.2132126629955797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.70287576245358</v>
+        <v>0.6045929242950047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9969250376951495</v>
+        <v>0.05428597458849704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6908112065930037</v>
+        <v>0.5122276766374384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003421074793078283</v>
+        <v>0.1881547204225691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008390533667437858</v>
+        <v>-0.0003249080646360186</v>
       </c>
       <c r="C9" t="n">
-        <v>3.758115476797952e-10</v>
+        <v>0.1614201907014412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01594761447487784</v>
+        <v>1.502939637247524e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05950826576653112</v>
+        <v>0.4578467623975448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2763887702803066</v>
+        <v>-0.2902063003526579</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1570408237458784</v>
+        <v>0.1689575147660787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8212323307439163</v>
+        <v>0.2894055264416327</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0128729037436688</v>
+        <v>0.5691482894374389</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6389098203034684</v>
+        <v>3.576641279758476</v>
       </c>
       <c r="C13" t="n">
-        <v>0.118714869849714</v>
+        <v>0.6753181766481475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0003202516399477072</v>
+        <v>0.05794841093248924</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1858291288724936</v>
+        <v>0.3567436557678632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.466225213883574e-07</v>
+        <v>-0.007548117461243567</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4732023702640052</v>
+        <v>0.5428982446958537</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2341911918456147</v>
+        <v>1.709573572579442</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2834274740847079</v>
+        <v>0.404593080089929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2480588296589355</v>
+        <v>-2.507160312150476</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6296356674111627</v>
+        <v>0.3054035096763179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.103292061108729</v>
+        <v>0.0002807784249864746</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6429046246715595</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.04829493372851917</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4419920570182263</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.006400329740719237</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6085227015208065</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.367243684439749</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2971431719583548</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.46582021666432</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.326834670319194</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.0001670657224994201</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8214198377057049</v>
+        <v>0.71423440377731</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,283 +980,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.54789647940382</v>
+        <v>0.3771868499141772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9976444650716703</v>
+        <v>0.914984821265022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.8977088238034</v>
+        <v>0.2795029678589276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996888177728226</v>
+        <v>0.04137598372917292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.36691083037212</v>
+        <v>0.0008607087146740722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966327333638413</v>
+        <v>1.030155453973303e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.40381725971024</v>
+        <v>-0.01443613726503472</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973217816006383</v>
+        <v>0.06933396323487621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.97147365277371</v>
+        <v>-0.1142217390626531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972230851709954</v>
+        <v>0.5376551829331726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.03282233421611</v>
+        <v>0.7933224888524172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968646860786405</v>
+        <v>0.01093139931097934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.009027433041484</v>
+        <v>0.6522112161119189</v>
       </c>
       <c r="C8" t="n">
-        <v>4.87036701976418e-05</v>
+        <v>0.09580993517177204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007282769452443714</v>
+        <v>-0.0001694910679668202</v>
       </c>
       <c r="C9" t="n">
-        <v>1.370595667692754e-08</v>
+        <v>0.4458636235841561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0212466763925776</v>
+        <v>1.498658256780139e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01415852946263314</v>
+        <v>0.9356686740919619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1366731981058723</v>
+        <v>-0.2640291344090724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4858317007720234</v>
+        <v>0.2004318446033898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9959667492899429</v>
+        <v>-0.08564696784112623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002550901951326969</v>
+        <v>0.8514744705770494</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7450089952403836</v>
+        <v>1.211236531462644</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07373762112193086</v>
+        <v>0.8844776486383084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001616326080310655</v>
+        <v>0.01255209564200773</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4892539981404674</v>
+        <v>0.8279218130759507</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.757700105880862e-09</v>
+        <v>-0.002594936276536581</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9713707192025356</v>
+        <v>0.8218353926666945</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2453807107170603</v>
+        <v>3.064774802619376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2560803596514774</v>
+        <v>0.1448446968487042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1048315531765319</v>
+        <v>1.108128033255765</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8218465131206822</v>
+        <v>0.6168309296355762</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.412376018971042</v>
+        <v>-0.0006000943271459196</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7812408818044131</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0004857345787668095</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9933322450978915</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.001702808495777236</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8844883973602465</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3.582987471480612</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1288826470527998</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.8739465577759593</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7052233002307533</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0006140143353247934</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3609997139282863</v>
+        <v>0.3852971398188463</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,283 +1237,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.66619992457259</v>
+        <v>-1.323589419727144</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9972778341337495</v>
+        <v>0.70688127974101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.78998357287058</v>
+        <v>0.3312265552991083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969088053129805</v>
+        <v>0.0130814186506188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.95336048613217</v>
+        <v>0.0008783319383558479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967066576114033</v>
+        <v>1.476854001944445e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.48137877017976</v>
+        <v>-0.008730773394334153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9973099477792151</v>
+        <v>0.2626929309380419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.05280576122525</v>
+        <v>-0.07521008014428072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972106567326482</v>
+        <v>0.6823131998978478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.48968985856779</v>
+        <v>0.5451442953849001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9969609842333415</v>
+        <v>0.08076873532633293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.795110414097861</v>
+        <v>0.440302590813887</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000241137628482972</v>
+        <v>0.2619124626959488</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007344972070932753</v>
+        <v>-0.000310265538806932</v>
       </c>
       <c r="C9" t="n">
-        <v>6.494276513637778e-09</v>
+        <v>0.156986046210385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0151043418137334</v>
+        <v>1.031499297654135e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07448887686270625</v>
+        <v>0.5828759974855694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09718088473896519</v>
+        <v>-0.3139213640985238</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6166491791026145</v>
+        <v>0.1222168548914847</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.748236244531207</v>
+        <v>0.08729288366794562</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0239276732121428</v>
+        <v>0.8516132856926462</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5337569237695641</v>
+        <v>0.8158975709910443</v>
       </c>
       <c r="C13" t="n">
-        <v>0.201406758752032</v>
+        <v>0.9195086824095094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002977815909434672</v>
+        <v>0.04381954275131181</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1952567212364895</v>
+        <v>0.4516495460230511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.000779854305563e-07</v>
+        <v>-0.00295935752255467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5991314056916037</v>
+        <v>0.7978903471304689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3035963227602963</v>
+        <v>2.374874963302462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.151585449472894</v>
+        <v>0.2307025138480604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0840106663277284</v>
+        <v>-1.830334524198825</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8596408965827746</v>
+        <v>0.418914310744866</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.142741303183952</v>
+        <v>-4.866026658139215e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7985844634773289</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0359026251015081</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5393596926029185</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.002937530776884772</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8025065005580134</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3.04103585823931</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.170258564983074</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.009339533005337</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3937977464677599</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0001265253999125482</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8531792786695821</v>
+        <v>0.9448170868548769</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,283 +1494,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.32270629951454</v>
+        <v>-0.9177756943635776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9973373397592582</v>
+        <v>0.7947787588343379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.89267695266153</v>
+        <v>0.4400825115388278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968907514469236</v>
+        <v>0.001897718448815378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.8952285833319</v>
+        <v>0.0009108959104148318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967165368988198</v>
+        <v>8.815589287527078e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.67184917412926</v>
+        <v>-0.008397302415500178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972766678140461</v>
+        <v>0.2862240654679885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.057610503417</v>
+        <v>-0.2384365873831367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972096334767019</v>
+        <v>0.1969976034187738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.79454642990093</v>
+        <v>0.3785657469799228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9969078037284967</v>
+        <v>0.2342969410992211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7463384916139769</v>
+        <v>0.2583839194824645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009225610050098036</v>
+        <v>0.5205953334794298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007857970466113032</v>
+        <v>-0.0001323615783986256</v>
       </c>
       <c r="C9" t="n">
-        <v>9.814580729928581e-10</v>
+        <v>0.5492550397010998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01458518969534222</v>
+        <v>2.676775778071096e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08596425024133672</v>
+        <v>0.8863800496563256</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2400125705334654</v>
+        <v>-0.2668260401058669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216944499939322</v>
+        <v>0.1839881454551439</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.652515870030044</v>
+        <v>-0.06985836027907485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05067678388337214</v>
+        <v>0.8800896250281871</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3810971922027784</v>
+        <v>0.4105312317153484</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3685952187600676</v>
+        <v>0.9598688569463213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001527636827398284</v>
+        <v>0.02448797492759302</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5104395297006545</v>
+        <v>0.6731097506715481</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.0299659741225e-08</v>
+        <v>0.002766625160067752</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8730713261279007</v>
+        <v>0.8094148982638715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2597142694625421</v>
+        <v>1.538631776038123</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2145061153950422</v>
+        <v>0.4462783329251133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.07615784801756552</v>
+        <v>-0.9241440317502763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8712279562956609</v>
+        <v>0.6781375178939656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.463455638259917</v>
+        <v>-0.0003406967373958506</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8629998257852621</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.01837893304350612</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7524061319667623</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.002717458398111686</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8145676711654595</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.136540867536956</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3439764275030531</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.149880621267954</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6178223165454535</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0003635335476545985</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.590333872028038</v>
+        <v>0.6251291204310483</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,283 +1751,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.29424230911268</v>
+        <v>0.2495168878961576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9976875137068431</v>
+        <v>0.9485893237673547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.87978689922986</v>
+        <v>0.3354929409953868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968898770556992</v>
+        <v>0.01694017257199223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.64323173713353</v>
+        <v>0.0009422109772091413</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967570793823272</v>
+        <v>3.771420484392044e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.7202292348638</v>
+        <v>-0.01562302920520372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.997265522571923</v>
+        <v>0.04856054105228703</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.04623481644955</v>
+        <v>-0.1529113511225539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.997208815300176</v>
+        <v>0.4094655081988264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.67870351828812</v>
+        <v>0.3754948729382659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9969248546108924</v>
+        <v>0.2333145092083087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6971430547043895</v>
+        <v>0.4769123068877849</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00105919848034268</v>
+        <v>0.2252396886127711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006832178435527158</v>
+        <v>-0.0002987886835005534</v>
       </c>
       <c r="C9" t="n">
-        <v>7.938971443945318e-08</v>
+        <v>0.2100970928733973</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01177092701348838</v>
+        <v>3.216376298897866e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1679475799340484</v>
+        <v>0.8775061236347744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05696221424343623</v>
+        <v>-0.3234320022989782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7696119202571721</v>
+        <v>0.135049928300638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8774867515848168</v>
+        <v>0.02537721647295849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007941219904669568</v>
+        <v>0.9614616445945158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4316048090130535</v>
+        <v>-1.166160378340052</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3020212129326922</v>
+        <v>0.8938059930519534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001717703753532388</v>
+        <v>0.02750545638929733</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4552827124243825</v>
+        <v>0.6715394839270994</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.803821943741724e-08</v>
+        <v>-0.002789430714436836</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8810789697034871</v>
+        <v>0.8245985908132152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3179494157039183</v>
+        <v>2.487114685903386</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1385191475574782</v>
+        <v>0.2385340381153324</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1825707316257092</v>
+        <v>-2.217281231043104</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6953316835513805</v>
+        <v>0.3768069365993917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1676119691529799</v>
+        <v>-1.49614983891853e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9843145224716918</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.001886238278630855</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9738400351586916</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.00331442717457326</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7768065019590336</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.956712825315793</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1994664715177314</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.2414486576580051</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9173261158256502</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0006470598759006389</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3368777400114368</v>
+        <v>0.9849798001230298</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,283 +2008,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-11.1804402514079</v>
+        <v>0.9408089408641972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9980546585155038</v>
+        <v>0.7878282751702984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.89697547925538</v>
+        <v>0.363446387140212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968860182580355</v>
+        <v>0.008013792794991193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.13289400238139</v>
+        <v>0.0008034712063753491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966709760196888</v>
+        <v>1.456313301710917e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.61715696348662</v>
+        <v>-0.004293977809529535</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972826933179106</v>
+        <v>0.5860446568620831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.07643895084353</v>
+        <v>-0.04011075260082503</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972027808865961</v>
+        <v>0.8280073809150005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.41807362796591</v>
+        <v>0.6336664512532336</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9967953503658833</v>
+        <v>0.0427405370710464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7772005239962587</v>
+        <v>0.2954871379900023</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000222641501085625</v>
+        <v>0.4515651756870471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006698442321645163</v>
+        <v>-0.0001908572241513831</v>
       </c>
       <c r="C9" t="n">
-        <v>1.092359515875901e-07</v>
+        <v>0.3845569995716415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01601126258916679</v>
+        <v>-9.754098573822243e-11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05950394051498079</v>
+        <v>0.9995799867938834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03417513527197928</v>
+        <v>-0.3172833364695363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8606561556632195</v>
+        <v>0.1240301507662925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9326826930695854</v>
+        <v>-0.1133768188151222</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005238564416993661</v>
+        <v>0.8051455414437727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7653230190048058</v>
+        <v>-0.4888704226940113</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06891802632786199</v>
+        <v>0.9525989745601552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.432539104700371e-05</v>
+        <v>0.009842798314458692</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7244348444425414</v>
+        <v>0.8637616322897981</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.49483231822811e-07</v>
+        <v>-0.005193738915512219</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4449037144322786</v>
+        <v>0.6523666633685573</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2396735634682422</v>
+        <v>2.492888437839863</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2724095961811753</v>
+        <v>0.2272104409798202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4127508486308795</v>
+        <v>0.2126786732489647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3946237727628171</v>
+        <v>0.9246409054287064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.777663288038664</v>
+        <v>-0.0005301773408019755</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5331298636140114</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0396269610524661</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5032633299770599</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.003057651771134093</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7980233187009466</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.357023801676115</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.314953535418771</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.4815933755352046</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8330872280683574</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0007791915500967872</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2585766805460581</v>
+        <v>0.4459626452271667</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,283 +2265,475 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.18915968852993</v>
+        <v>2.901071135955358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9977068031592271</v>
+        <v>0.4287599242118513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.93744952430875</v>
+        <v>0.3931040558427116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968812214910031</v>
+        <v>0.003996020525122122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.3450793244653</v>
+        <v>0.0007977573250028099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966364787810936</v>
+        <v>1.138967467587731e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.56813349496877</v>
+        <v>-0.01009641717591812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972931719988095</v>
+        <v>0.1966344779709102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.05521371973426</v>
+        <v>-0.04441013786804294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972084838054078</v>
+        <v>0.8090951255892013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.88937146603787</v>
+        <v>0.741049042501172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.996889580781898</v>
+        <v>0.01928371465826048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8485709235643064</v>
+        <v>0.6483036036904316</v>
       </c>
       <c r="C8" t="n">
-        <v>7.282632975041714e-05</v>
+        <v>0.1019115152349876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006786650490709129</v>
+        <v>-9.397785707485197e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.738529180298787e-08</v>
+        <v>0.6800664486197937</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01118780932540975</v>
+        <v>-1.23337166793884e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.18912031872914</v>
+        <v>0.5216026177519717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1317126554852559</v>
+        <v>-0.2492324269087953</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4921602751034485</v>
+        <v>0.2345045099585549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.623406088883935</v>
+        <v>-0.3643395840914988</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05803797243951936</v>
+        <v>0.4430072406559761</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3313926572715244</v>
+        <v>-5.854735160502526</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4312077003824686</v>
+        <v>0.5105994780472418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001843426329500712</v>
+        <v>-0.02688835052863534</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4344666780068552</v>
+        <v>0.64734860041029</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.900523936981275e-08</v>
+        <v>0.00189593757928017</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7968908885324077</v>
+        <v>0.8716129028813211</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3766857321400616</v>
+        <v>2.107426176114843</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09017550096454187</v>
+        <v>0.313395891061383</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2128095159957454</v>
+        <v>-0.3146546695000896</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6548253252564524</v>
+        <v>0.8857995206630908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>transit_accessibility</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.0007543028247240534</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2876707082751451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coefficient</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.000410343083058</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7800522023973453</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3662369600700284</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00654219039036793</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IncomeDetailed_Numeric</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0008169457368209112</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.246074584537074e-11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>maxAgeHH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.005375981004247933</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4920532669918493</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UniversityEducation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1318525538296941</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.467036634216959</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>InEmployment</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4471122968412595</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1506355635260214</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AllRetired</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2693000893972575</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4953069381935935</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UrbPopDensity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.0001953374821749147</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.383692084155658</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UrbBuildDensity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.875274926275121e-08</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7950228934593451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DistSubcenter</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.402137979417623</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06021460705473609</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DistCenter</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.1899102901735252</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6846376365896856</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>bike_lane_share</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>-1.98122431929054</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8145673542983255</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IntersecDensity</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.008137328807385458</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.889345049089981</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>street_length</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002045260403057822</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8596825157862209</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LU_UrbFab</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.400664903903335</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2556864295125719</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LU_Comm</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.016854916851593</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6524397257275893</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>transit_accessibility</t>
+        </is>
+      </c>
       <c r="B18" t="n">
-        <v>-1.182729147233897</v>
+        <v>-0.0003968019701695879</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8929460148817518</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.001224786741366614</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9833904240343206</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.001632355487120809</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.889317718815742</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.880501634801353</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2229577756774743</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.267883223402456</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.589556960032203</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0004710490773559037</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4936146428100034</v>
+        <v>0.5749812986897264</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Magdeburg.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Magdeburg.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02092047736538565</v>
+        <v>-0.01812027215677629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9952757192782308</v>
+        <v>0.9958236317912131</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3355685274738435</v>
+        <v>0.3355590939379292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01341623783187792</v>
+        <v>0.01342030651966526</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0008351909124519682</v>
+        <v>0.0008352133826069899</v>
       </c>
       <c r="C4" t="n">
-        <v>1.717018120170136e-11</v>
+        <v>1.714663619040282e-11</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009048160601067605</v>
+        <v>-0.009049556876181126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2470051927275839</v>
+        <v>0.2469246281669165</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.05695742684360712</v>
+        <v>-0.05701807534964841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.755312145502732</v>
+        <v>0.7550623249438204</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7860328500189753</v>
+        <v>0.7862004337989308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01200460683768989</v>
+        <v>0.01198546756195313</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5482793693877288</v>
+        <v>0.5483896478403341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1623351476459418</v>
+        <v>0.1622439374093061</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0002861971979553852</v>
+        <v>-0.02731677139703006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1958580393984309</v>
+        <v>0.2517028146422399</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.544560255406228e-08</v>
+        <v>-0.01787928859106485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9338029260489356</v>
+        <v>0.9246212576781205</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.192888439560319</v>
+        <v>-0.2005945378556795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3452029118436492</v>
+        <v>0.3233900723042464</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2677817507523799</v>
+        <v>-0.2755314728997295</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5600092037467799</v>
+        <v>0.5580684362398898</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.347129862529443</v>
+        <v>-0.05322813809524255</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5173037824021676</v>
+        <v>0.5164841056305847</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01902350636392812</v>
+        <v>0.01897779677698487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7411556349973907</v>
+        <v>0.741203684678114</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007938403222498887</v>
+        <v>0.008543857610257862</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4890122710471269</v>
+        <v>0.4791429739980625</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.527541481879686</v>
+        <v>0.0146883142386071</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4515080148054543</v>
+        <v>0.4674198552128725</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3266044394941724</v>
+        <v>-0.003481530226482358</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8810384416995551</v>
+        <v>0.8710124387278078</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0003785391372174832</v>
+        <v>-0.02535761797468775</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5825836095129766</v>
+        <v>0.5807979313241729</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.316243892145694</v>
+        <v>-2.299781171562065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5385278344402057</v>
+        <v>0.5334346663467614</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3773296680401746</v>
+        <v>0.3773295769260395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007514552224016706</v>
+        <v>0.0075132984137313</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009315769333814833</v>
+        <v>0.0009315729335168283</v>
       </c>
       <c r="C4" t="n">
-        <v>1.126116978590191e-12</v>
+        <v>1.126525356762588e-12</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01015238404704361</v>
+        <v>-0.01015343326177049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1980689112003143</v>
+        <v>0.1980219008647848</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2326902816792155</v>
+        <v>-0.2326626046308304</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2132126629955797</v>
+        <v>0.2132683558176693</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6045929242950047</v>
+        <v>0.6044193876863052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05428597458849704</v>
+        <v>0.0543639269548076</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5122276766374384</v>
+        <v>0.5122081427657463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1881547204225691</v>
+        <v>0.1881646435669747</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0003249080646360186</v>
+        <v>-0.03353711415849171</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1614201907014412</v>
+        <v>0.1836072850042385</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.502939637247524e-07</v>
+        <v>0.1528294976264141</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4578467623975448</v>
+        <v>0.4592670844075251</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2902063003526579</v>
+        <v>-0.2843849148532314</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1689575147660787</v>
+        <v>0.1760460960296762</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2894055264416327</v>
+        <v>0.2971502845787449</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5691482894374389</v>
+        <v>0.5695020651819261</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.576641279758476</v>
+        <v>0.03583477395729661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6753181766481475</v>
+        <v>0.6731455242093384</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05794841093248924</v>
+        <v>0.05819961211703632</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3567436557678632</v>
+        <v>0.3547574046669103</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.007548117461243567</v>
+        <v>-0.008036107929366714</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5428982446958537</v>
+        <v>0.541776211706235</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.709573572579442</v>
+        <v>0.01752593968343814</v>
       </c>
       <c r="C16" t="n">
-        <v>0.404593080089929</v>
+        <v>0.3897744128472017</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.507160312150476</v>
+        <v>-0.0249928235404318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3054035096763179</v>
+        <v>0.2990789840205192</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0002807784249864746</v>
+        <v>0.01901225244082655</v>
       </c>
       <c r="C18" t="n">
-        <v>0.71423440377731</v>
+        <v>0.7108299535146984</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3771868499141772</v>
+        <v>0.3041114472358471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.914984821265022</v>
+        <v>0.9299815579416035</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2795029678589276</v>
+        <v>0.2794462330956845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04137598372917292</v>
+        <v>0.04142399643208165</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0008607087146740722</v>
+        <v>0.0008607695462240454</v>
       </c>
       <c r="C4" t="n">
-        <v>1.030155453973303e-11</v>
+        <v>1.026282674178491e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01443613726503472</v>
+        <v>-0.01443999336724449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06933396323487621</v>
+        <v>0.06925957911561498</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1142217390626531</v>
+        <v>-0.1143713224284508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5376551829331726</v>
+        <v>0.5371278294676208</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7933224888524172</v>
+        <v>0.7936714208308713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01093139931097934</v>
+        <v>0.01089907889079036</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6522112161119189</v>
+        <v>0.6525013053126707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09580993517177204</v>
+        <v>0.09566004285202367</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001694910679668202</v>
+        <v>-0.01494897247178228</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4458636235841561</v>
+        <v>0.5323110708844283</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.498658256780139e-08</v>
+        <v>0.01169937831578945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9356686740919619</v>
+        <v>0.9505688234348257</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2640291344090724</v>
+        <v>-0.2762301419051991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2004318446033898</v>
+        <v>0.1786013786249285</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08564696784112623</v>
+        <v>-0.09645669584100514</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8514744705770494</v>
+        <v>0.8369087142243413</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.211236531462644</v>
+        <v>0.01266289373123632</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8844776486383084</v>
+        <v>0.8785777638283828</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01255209564200773</v>
+        <v>0.01266193298115602</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8279218130759507</v>
+        <v>0.8260699998173242</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002594936276536581</v>
+        <v>-0.001654394595873848</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8218353926666945</v>
+        <v>0.8912926440978453</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.064774802619376</v>
+        <v>0.02970782434260675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1448446968487042</v>
+        <v>0.1555782635314506</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.108128033255765</v>
+        <v>0.01067642661053557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6168309296355762</v>
+        <v>0.6237814116360478</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0006000943271459196</v>
+        <v>-0.04003119312805816</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3852971398188463</v>
+        <v>0.3851670400594112</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.323589419727144</v>
+        <v>-1.325944576011029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.70688127974101</v>
+        <v>0.7007833355713695</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3312265552991083</v>
+        <v>0.3312231564270988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0130814186506188</v>
+        <v>0.01308275952419379</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0008783319383558479</v>
+        <v>0.00087833392361186</v>
       </c>
       <c r="C4" t="n">
-        <v>1.476854001944445e-12</v>
+        <v>1.476417627233024e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008730773394334153</v>
+        <v>-0.008730665257752009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2626929309380419</v>
+        <v>0.2626939472213117</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.07521008014428072</v>
+        <v>-0.07521870464588389</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6823131998978478</v>
+        <v>0.6822799010381994</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5451442953849001</v>
+        <v>0.5451733806568415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08076873532633293</v>
+        <v>0.08075604272800957</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.440302590813887</v>
+        <v>0.4403085654627565</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2619124626959488</v>
+        <v>0.2618961508050336</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.000310265538806932</v>
+        <v>-0.03084225467426667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.156986046210385</v>
+        <v>0.1930583853484437</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.031499297654135e-07</v>
+        <v>0.102691563804267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5828759974855694</v>
+        <v>0.5910502861635714</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3139213640985238</v>
+        <v>-0.3149223848364713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1222168548914847</v>
+        <v>0.1190996803555314</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08729288366794562</v>
+        <v>0.08589503772284794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8516132856926462</v>
+        <v>0.8575355933648505</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8158975709910443</v>
+        <v>0.008137229299092151</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9195086824095094</v>
+        <v>0.9192511863220832</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04381954275131181</v>
+        <v>0.0437690159388877</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4516495460230511</v>
+        <v>0.4516369471927982</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.00295935752255467</v>
+        <v>-0.00287458617953202</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7978903471304689</v>
+        <v>0.8137705226143808</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.374874963302462</v>
+        <v>0.02367480439155215</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2307025138480604</v>
+        <v>0.229510330660622</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.830334524198825</v>
+        <v>-0.01831482722741843</v>
       </c>
       <c r="C17" t="n">
-        <v>0.418914310744866</v>
+        <v>0.4105738943897156</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.866026658139215e-05</v>
+        <v>-0.003302320133771382</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9448170868548769</v>
+        <v>0.9439056168039026</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9177756943635776</v>
+        <v>-0.9423551700453142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7947787588343379</v>
+        <v>0.7851965030426549</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4400825115388278</v>
+        <v>0.4400779884251362</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001897718448815378</v>
+        <v>0.001898274361696542</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009108959104148318</v>
+        <v>0.0009108914734774035</v>
       </c>
       <c r="C4" t="n">
-        <v>8.815589287527078e-13</v>
+        <v>8.813216971052571e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008397302415500178</v>
+        <v>-0.008398543844222105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2862240654679885</v>
+        <v>0.2861451970689286</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2384365873831367</v>
+        <v>-0.2384786467527506</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1969976034187738</v>
+        <v>0.1969201603121145</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3785657469799228</v>
+        <v>0.3788742487577461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2342969410992211</v>
+        <v>0.2339273278962064</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2583839194824645</v>
+        <v>0.2585997596080238</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5205953334794298</v>
+        <v>0.5202370156162301</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001323615783986256</v>
+        <v>-0.01199469149883151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5492550397010998</v>
+        <v>0.6151034408263529</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.676775778071096e-08</v>
+        <v>0.023971664287397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8863800496563256</v>
+        <v>0.8998915607120136</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2668260401058669</v>
+        <v>-0.2737765017580713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1839881454551439</v>
+        <v>0.1710976222722268</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06985836027907485</v>
+        <v>-0.07849167791605911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8800896250281871</v>
+        <v>0.8686513472749861</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4105312317153484</v>
+        <v>0.004099506741426959</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9598688569463213</v>
+        <v>0.9596943436059243</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02448797492759302</v>
+        <v>0.02426582142260495</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6731097506715481</v>
+        <v>0.6753997197017082</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002766625160067752</v>
+        <v>0.003342468278789866</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8094148982638715</v>
+        <v>0.7823747567380732</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.538631776038123</v>
+        <v>0.0148612817462852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4462783329251133</v>
+        <v>0.4597998361790145</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.9241440317502763</v>
+        <v>-0.009368806992198759</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6781375178939656</v>
+        <v>0.668574600937588</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0003406967373958506</v>
+        <v>-0.02299439700363366</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6251291204310483</v>
+        <v>0.6211731615780134</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2495168878961576</v>
+        <v>0.2585394466912427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9485893237673547</v>
+        <v>0.9456244968862559</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3354929409953868</v>
+        <v>0.3354974103450222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01694017257199223</v>
+        <v>0.01693865509319632</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009422109772091413</v>
+        <v>0.0009422048184748917</v>
       </c>
       <c r="C4" t="n">
-        <v>3.771420484392044e-13</v>
+        <v>3.772515896237855e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01562302920520372</v>
+        <v>-0.01562197992955285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04856054105228703</v>
+        <v>0.04856928700678097</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1529113511225539</v>
+        <v>-0.1529023867643406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4094655081988264</v>
+        <v>0.4094888323171524</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3754948729382659</v>
+        <v>0.3755193720519183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2333145092083087</v>
+        <v>0.2332942779224924</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4769123068877849</v>
+        <v>0.4768755466471</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2252396886127711</v>
+        <v>0.2252579109141905</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0002987886835005534</v>
+        <v>-0.02976065231522526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2100970928733973</v>
+        <v>0.2511248404160226</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.216376298897866e-08</v>
+        <v>0.03147721888497049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8775061236347744</v>
+        <v>0.8823693814111869</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3234320022989782</v>
+        <v>-0.323734763603653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.135049928300638</v>
+        <v>0.1330576850509518</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02537721647295849</v>
+        <v>0.02344556092833676</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9614616445945158</v>
+        <v>0.9653288535211372</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.166160378340052</v>
+        <v>-0.01185898994646961</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8938059930519534</v>
+        <v>0.8914070651608961</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02750545638929733</v>
+        <v>0.02732136899060766</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6715394839270994</v>
+        <v>0.6734039965928389</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002789430714436836</v>
+        <v>-0.002736366242006842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8245985908132152</v>
+        <v>0.8381392869851592</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.487114685903386</v>
+        <v>0.02485362339809298</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2385340381153324</v>
+        <v>0.2357496887880501</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.217281231043104</v>
+        <v>-0.02211396634617756</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3768069365993917</v>
+        <v>0.3698032462586053</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.49614983891853e-05</v>
+        <v>-0.001173053694706707</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9849798001230298</v>
+        <v>0.9823762770138801</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9408089408641972</v>
+        <v>0.8962282156610615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7878282751702984</v>
+        <v>0.7934714687334182</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.363446387140212</v>
+        <v>0.3633779234828241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008013792794991193</v>
+        <v>0.008028339927852342</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0008034712063753491</v>
+        <v>0.000803494182673122</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456313301710917e-10</v>
+        <v>1.455427714722227e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004293977809529535</v>
+        <v>-0.004291575105054855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5860446568620831</v>
+        <v>0.586255748267517</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04011075260082503</v>
+        <v>-0.04010959840844534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8280073809150005</v>
+        <v>0.8280138166359126</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6336664512532336</v>
+        <v>0.6339251336096116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0427405370710464</v>
+        <v>0.04265661179373908</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2954871379900023</v>
+        <v>0.2955433736315085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4515651756870471</v>
+        <v>0.4514726850371924</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001908572241513831</v>
+        <v>-0.01719464162994216</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3845569995716415</v>
+        <v>0.4676364233485505</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.754098573822243e-11</v>
+        <v>-0.004043078904485268</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9995799867938834</v>
+        <v>0.9828692309485456</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3172833364695363</v>
+        <v>-0.3281251066018299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1240301507662925</v>
+        <v>0.1100011851015141</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1133768188151222</v>
+        <v>-0.1257941640041922</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8051455414437727</v>
+        <v>0.7892559668742347</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4888704226940113</v>
+        <v>-0.004773749358602407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9525989745601552</v>
+        <v>0.9534288468432351</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.009842798314458692</v>
+        <v>0.009611160109419736</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8637616322897981</v>
+        <v>0.866623116854043</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.005193738915512219</v>
+        <v>-0.004319160708968204</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6523666633685573</v>
+        <v>0.7217589636649477</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.492888437839863</v>
+        <v>0.02411348630854236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2272104409798202</v>
+        <v>0.2404723811465179</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2126786732489647</v>
+        <v>0.001889198607213807</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9246409054287064</v>
+        <v>0.9318507722550841</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0005301773408019755</v>
+        <v>-0.03568629794532298</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4459626452271667</v>
+        <v>0.441669460660718</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.901071135955358</v>
+        <v>2.802220302164494</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4287599242118513</v>
+        <v>0.4346550537572909</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3931040558427116</v>
+        <v>0.3931250374847142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003996020525122122</v>
+        <v>0.003995920320873234</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0007977573250028099</v>
+        <v>0.0007977864946501987</v>
       </c>
       <c r="C4" t="n">
-        <v>1.138967467587731e-10</v>
+        <v>1.137145658511204e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01009641717591812</v>
+        <v>-0.01010308990638834</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1966344779709102</v>
+        <v>0.196317805359839</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04441013786804294</v>
+        <v>-0.04456644499910162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8090951255892013</v>
+        <v>0.8084350470772643</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.741049042501172</v>
+        <v>0.7412908420697971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01928371465826048</v>
+        <v>0.0192428159083561</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6483036036904316</v>
+        <v>0.648597140890221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1019115152349876</v>
+        <v>0.101743944377694</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.397785707485197e-05</v>
+        <v>-0.006929122071826738</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6800664486197937</v>
+        <v>0.7777883825813863</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.23337166793884e-07</v>
+        <v>-0.1270272213290342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5216026177519717</v>
+        <v>0.5155014336949222</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2492324269087953</v>
+        <v>-0.2646648349487954</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2345045099585549</v>
+        <v>0.2043613971010279</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3643395840914988</v>
+        <v>-0.3766910086897841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4430072406559761</v>
+        <v>0.4379158324127628</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.854735160502526</v>
+        <v>-0.05763635131746087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5105994780472418</v>
+        <v>0.5141049487539202</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02688835052863534</v>
+        <v>-0.02663487850393707</v>
       </c>
       <c r="C14" t="n">
-        <v>0.64734860041029</v>
+        <v>0.6493277268935356</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00189593757928017</v>
+        <v>0.003050948424265953</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8716129028813211</v>
+        <v>0.8048185782712957</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.107426176114843</v>
+        <v>0.01990179714433684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.313395891061383</v>
+        <v>0.3399121646999737</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3146546695000896</v>
+        <v>-0.003692686579437319</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8857995206630908</v>
+        <v>0.8636871489425566</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0007543028247240534</v>
+        <v>-0.05020766821774</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2876707082751451</v>
+        <v>0.2877848067389982</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.000410343083058</v>
+        <v>0.9605284376019726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7800522023973453</v>
+        <v>0.7841204641025441</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3662369600700284</v>
+        <v>0.3662248379769317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00654219039036793</v>
+        <v>0.006545365127300335</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0008169457368209112</v>
+        <v>0.0008169575713364057</v>
       </c>
       <c r="C4" t="n">
-        <v>1.246074584537074e-11</v>
+        <v>1.245301946721037e-11</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005375981004247933</v>
+        <v>-0.005377047204363355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4920532669918493</v>
+        <v>0.491963229344718</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1318525538296941</v>
+        <v>-0.1319022735187795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.467036634216959</v>
+        <v>0.4668683148511843</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4471122968412595</v>
+        <v>0.4473454664722784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1506355635260214</v>
+        <v>0.1504300705710727</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2693000893972575</v>
+        <v>0.269433616239662</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4953069381935935</v>
+        <v>0.4950898864210161</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001953374821749147</v>
+        <v>-0.01816127329572342</v>
       </c>
       <c r="C9" t="n">
-        <v>0.383692084155658</v>
+        <v>0.4524838621867419</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.875274926275121e-08</v>
+        <v>-0.05137786136876737</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7950228934593451</v>
+        <v>0.7876349050590677</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.402137979417623</v>
+        <v>-0.4103147813618919</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06021460705473609</v>
+        <v>0.05340227910857309</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1899102901735252</v>
+        <v>-0.1982435855789745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6846376365896856</v>
+        <v>0.6787953316462592</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.98122431929054</v>
+        <v>-0.01958919093049252</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8145673542983255</v>
+        <v>0.8154083476031529</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.008137328807385458</v>
+        <v>0.008072199793195074</v>
       </c>
       <c r="C14" t="n">
-        <v>0.889345049089981</v>
+        <v>0.8899191277025381</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002045260403057822</v>
+        <v>0.002685855320368182</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8596825157862209</v>
+        <v>0.8254648568128371</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.400664903903335</v>
+        <v>0.02339362624390919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2556864295125719</v>
+        <v>0.2658834083161665</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.016854916851593</v>
+        <v>-0.0103866146581647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6524397257275893</v>
+        <v>0.6395072460166348</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0003968019701695879</v>
+        <v>-0.0266008995859358</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5749812986897264</v>
+        <v>0.5726660138987308</v>
       </c>
     </row>
   </sheetData>
